--- a/xlsx/a69_f04UPPachuca.xlsx
+++ b/xlsx/a69_f04UPPachuca.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\SIPOT\Vo. Bo. Uno 2do Tri 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EVALUACION\EVALUACIÓN\2023\UPP-17-2023-12C\12C.1_1 (Transparencia Institucional)\SIPOT\3ER TRIMESTRE\UPP 3ER TRI 2023 SIPOT vo.bo. 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E82329DC-AC3D-4C60-A331-5E325617DEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -156,7 +155,13 @@
     <t>Unidad de medida</t>
   </si>
   <si>
-    <t>Departamento de Evaluación y Estadistica (UPP)</t>
+    <t>Dirección de Planeación (UPP)</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/03-programa-operativo-anual-autorizado/2023</t>
+  </si>
+  <si>
+    <t>Departamento de Evaluación y Estadística (UPP)</t>
   </si>
   <si>
     <t>3. Investigación científica, tecnológica y educativa realizada:
@@ -171,71 +176,73 @@
 Cumplir con los objetivos y metas programadas del componente 5, Programa de gestión administrativa de las Instituciones de Educación Superior ejecutado. En razón del ejercicio, en paralelo con la disposición de recursos económicos, e implementar los mecanismos necesarios de racionalidad económica y disciplina financiera para lograr cubrir en su totalidad los requerimientos que nos genera la matrícula escolar actual y dar fiel cumplimiento a los objetivos de la Universidad Politécnica de Pachuca.</t>
   </si>
   <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
-    <t>Porcentaje de proyectos de investigación científica, tecnológica y educativa realizados</t>
-  </si>
-  <si>
-    <t>Proyecto </t>
-  </si>
-  <si>
-    <t>Porcentaje de instrumentos de planeación y evaluación estratégica implementados</t>
-  </si>
-  <si>
-    <t>Instrumento</t>
-  </si>
-  <si>
-    <t>Porcentaje de acciones del programa de  gestión administrativa ejecutado</t>
-  </si>
-  <si>
-    <t>Acción</t>
-  </si>
-  <si>
-    <t>Estudiantado</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/03-programa-operativo-anual-autorizado/2023</t>
-  </si>
-  <si>
     <t>El Área responsable atiende al supuesto 2 del artículo octavo de los Lineamientos Técnicos Generales.
 El objetivo corresponde al gasto de operación de la Institución.</t>
   </si>
   <si>
-    <t>1. El estudiantado de educación superior en las instituciones públicas formados:
-Contribuir a la mejora de la calidad educativa en los programas educativos a nivel licenciatura y posgrado, que se ofertan en la Universidad Politécnica de Pachuca, para el desarrollo de conocimientos, destrezas y actitudes que permiten al sujeto que las posee, desarrollar actividades en su área profesional, así como transferir, sus conocimientos, habilidades y actitudes a áreas profesionales próximas.</t>
-  </si>
-  <si>
-    <t>2. Servicios de extensión y vinculación de Educación Superior otorgados:
-Consolidar los servicios de difusión, orientación, vinculación y extensión con los sectores productivo, gubernamental, social, público y privado con la finalidad de generar calidad y prestigio del servicio educativo que ofrece la Universidad Politécnica de Pachuca consolidándonos como una de las mejores propuestas de educación superior para la población estudiantil de Instituciones de Educación Media Superior del estado y del país.</t>
-  </si>
-  <si>
-    <t>6. Útiles escolares a estudiantes de la Universidad Politécnica de Pachuca, entregados: 
-Proporcionar al estudiantado de la UPP útiles escolares que permiten reforzar el proceso de enseñanza-aprendizaje de acuerdo con el Modelo Educativo Basado en Competencias, garantizando su permanencia y eficiencia terminal con la dotación oportuna de los mismos.</t>
-  </si>
-  <si>
-    <t>Porcentaje de estudiantado formados en Educación Superior</t>
-  </si>
-  <si>
-    <t>Porcentaje de estudiantado con útiles escolares entregados</t>
-  </si>
-  <si>
-    <t>Beneficiaria/o</t>
-  </si>
-  <si>
-    <t>Porcentaje de población beneficiada con servicios de extensión y vinculación otorgados</t>
-  </si>
-  <si>
     <t>El Área responsable atiende al supuesto 2 del artículo octavo de los Lineamientos Técnicos Generales.
 El objetivo corresponde al gasto de inversión de la Institución.
-En atención a los oficios SEPH/SPYE/197/2023, SPYE/DGE/007/2023 y SH/SSP/UTED/232/2023 se cancela el proyecto para el ejercicio 2023</t>
+En atención a los oficios SEPH/SPYE/197/2023, SPYE/DGE/007/2023 y SH/SSP/UTED/232/2023 se cancela el proyecto para el ejercicio 20223</t>
+  </si>
+  <si>
+    <t>Porcentaje de beneficiarios con servicios de extensión y vinculación otorgados</t>
+  </si>
+  <si>
+    <t>Porcentaje de proyectos de investigación científica, tecnológica y educativa realizados</t>
+  </si>
+  <si>
+    <t>Proyecto </t>
+  </si>
+  <si>
+    <t>Porcentaje de instrumentos de planeación y evaluación estratégica implementados</t>
+  </si>
+  <si>
+    <t>Instrumento</t>
+  </si>
+  <si>
+    <t>Porcentaje de acciones del programa de  gestión administrativa ejecutado</t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>2. Servicios de extensión y vinculación de Educación Superior otorgados:
+Consolidar los servicios de difusión, orientación, vinculación y extensión con los sectores productivo, gubernamental, social, público y privado con la finalidad de generar calidad y prestigio del servicio educativo que ofrece la Universidad Politécnica de Pachuca consolidándonos como una de las mejores propuestas de educación superior para las y los alumnos de Instituciones de Educación Media Superior del estado y del país. 
+(Consolidar los servicios de difusión, orientación, vinculación y extensión con los sectores productivo, gubernamental, social, público y privado con la finalidad de generar calidad y prestigio del servicio educativo que ofrece la Universidad Politécnica de Pachuca consolidándonos como una de las mejores propuestas de educación superior para la población estudiantil de Instituciones de Educación Media Superior del estado y del país)</t>
+  </si>
+  <si>
+    <t>1. Estudiantes de educación superior en las instituciones públicas formados:
+Contribuir a la mejora de la calidad educativa en los programas educativos a nivel licenciatura y posgrado, que se ofertan en la Universidad Politécnica de Pachuca, para el desarrollo de conocimientos, destrezas y actitudes que permiten al sujeto que las posee, desarrollar actividades en su área profesional, así como transferir, sus conocimientos, habilidades y actitudes a áreas profesionales próximas.
+(1. El estudiantado de educación superior en las instituciones públicas formados)</t>
+  </si>
+  <si>
+    <t>6. Útiles escolares a estudiantes de la Universidad Politécnica de Pachuca, entregados: 
+Proporcionar a los estudiantes de la UPP útiles escolares que permiten reforzar el proceso de enseñanza-aprendizaje de acuerdo con el Modelo Educativo Basado en Competencias, garantizando su permanencia y eficiencia terminal con la dotación oportuna de los mismos.
+(6. Útiles escolares a estudiantado de la Universidad Politécnica de Pachuca, entregados: 
+Proporcionar al estudiantado de la UPP útiles escolares que permiten reforzar el proceso de enseñanza-aprendizaje de acuerdo con el Modelo Educativo Basado en Competencias, garantizando su permanencia y eficiencia terminal con la dotación oportuna de los mismos.)</t>
+  </si>
+  <si>
+    <t>Porcentaje de estudiantes formados en Educación Superior
+(Porcentaje de estudiantado formados en Educación Superior)</t>
+  </si>
+  <si>
+    <t>Estudiante
+(Estudiantado)</t>
+  </si>
+  <si>
+    <t>Beneficiario
+(Beneficiaria/o)</t>
+  </si>
+  <si>
+    <t>Porcentaje de estudiantes con útiles escolares entregados
+(Porcentaje de estudiantado con útiles escolares entregados)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -248,19 +255,18 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -272,19 +278,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -359,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -367,29 +361,41 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -409,9 +415,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -449,9 +455,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,7 +492,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,7 +527,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -694,11 +700,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +719,7 @@
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.7109375" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -722,38 +728,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -826,19 +832,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -875,214 +881,214 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>2023</v>
       </c>
-      <c r="B8" s="6">
-        <v>45017</v>
-      </c>
-      <c r="C8" s="6">
-        <v>45107</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>58</v>
+      <c r="B8" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="3">
+        <v>45209</v>
+      </c>
+      <c r="J8" s="3">
+        <v>45026</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="6">
-        <v>45117</v>
-      </c>
-      <c r="J8" s="6">
-        <v>45117</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>2023</v>
-      </c>
-      <c r="B9" s="6">
-        <v>45017</v>
-      </c>
-      <c r="C9" s="6">
-        <v>45107</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="5">
         <v>2</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="3">
+        <v>45209</v>
+      </c>
+      <c r="J9" s="3">
+        <v>45026</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="6">
-        <v>45117</v>
-      </c>
-      <c r="J9" s="6">
-        <v>45117</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="6">
-        <v>45017</v>
-      </c>
-      <c r="C10" s="6">
-        <v>45107</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>45</v>
+      <c r="E10" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="F10" s="5">
         <v>3</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45209</v>
+      </c>
+      <c r="J10" s="3">
+        <v>45026</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="6">
-        <v>45117</v>
-      </c>
-      <c r="J10" s="6">
-        <v>45117</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>2023</v>
-      </c>
-      <c r="B11" s="6">
-        <v>45017</v>
-      </c>
-      <c r="C11" s="6">
-        <v>45107</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="F11" s="5">
         <v>4</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="3">
+        <v>45209</v>
+      </c>
+      <c r="J11" s="3">
+        <v>45026</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="6">
-        <v>45117</v>
-      </c>
-      <c r="J11" s="6">
-        <v>45117</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>2023</v>
-      </c>
-      <c r="B12" s="6">
-        <v>45017</v>
-      </c>
-      <c r="C12" s="6">
-        <v>45107</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>47</v>
+      <c r="E12" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F12" s="5">
         <v>5</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="3">
+        <v>45209</v>
+      </c>
+      <c r="J12" s="3">
+        <v>45026</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="6">
-        <v>45117</v>
-      </c>
-      <c r="J12" s="6">
-        <v>45117</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>2023</v>
-      </c>
-      <c r="B13" s="6">
-        <v>45017</v>
-      </c>
-      <c r="C13" s="6">
-        <v>45107</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>60</v>
+      <c r="E13" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F13" s="5">
         <v>6</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="6">
-        <v>45117</v>
-      </c>
-      <c r="J13" s="6">
-        <v>45117</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>65</v>
+      <c r="G13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="3">
+        <v>45209</v>
+      </c>
+      <c r="J13" s="3">
+        <v>45026</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1096,19 +1102,23 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G8:G13" r:id="rId1" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/03-programa-operativo-anual-autorizado/2023" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G8" r:id="rId1"/>
+    <hyperlink ref="G9" r:id="rId2"/>
+    <hyperlink ref="G10" r:id="rId3"/>
+    <hyperlink ref="G11" r:id="rId4"/>
+    <hyperlink ref="G12" r:id="rId5"/>
+    <hyperlink ref="G13" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,88 +1165,88 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="9">
         <v>5295</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3760</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="8">
-        <v>3760</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C7" s="9">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="9">
+        <v>9900</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="8">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="8">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="8">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="8">
-        <v>9900</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
